--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -1,37 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\School\CP 317\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA65CD4-2E85-45D4-9095-B94EA419D939}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D8F760B-BDA7-4A31-B3BA-363D08C2CAEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{FB7DADC1-DAC3-43E0-94D6-CF9B6A261BF7}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Testing" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
+  <si>
+    <t>Date</t>
+  </si>
   <si>
     <t>Test ID</t>
   </si>
@@ -51,15 +43,15 @@
     <t>Actual Output</t>
   </si>
   <si>
+    <t>Testing Decimal Addition</t>
+  </si>
+  <si>
     <t>Click one number then addition then another number</t>
   </si>
   <si>
     <t>1+1</t>
   </si>
   <si>
-    <t>Testing Decimal Addition</t>
-  </si>
-  <si>
     <t>Testing Decimal Multiplication</t>
   </si>
   <si>
@@ -72,16 +64,19 @@
     <t>Testing Decimal subtaction</t>
   </si>
   <si>
+    <t>Click one number then subtration then another number</t>
+  </si>
+  <si>
+    <t>15-20</t>
+  </si>
+  <si>
     <t>Testing Decimal division</t>
   </si>
   <si>
     <t>Click one number then division then another number</t>
   </si>
   <si>
-    <t>Click one number then subtration then another number</t>
-  </si>
-  <si>
-    <t>15-20</t>
+    <t xml:space="preserve"> 3/4</t>
   </si>
   <si>
     <t>Changing between number systems</t>
@@ -102,6 +97,9 @@
     <t>limitations on inputs depending on number system choice</t>
   </si>
   <si>
+    <t>click on radio buttons</t>
+  </si>
+  <si>
     <t>different inputs get greyed out depending on number system</t>
   </si>
   <si>
@@ -117,7 +115,58 @@
     <t>1+1, C</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>test CE button clears current input</t>
+  </si>
+  <si>
+    <t>click inputs press CE</t>
+  </si>
+  <si>
+    <t>256,CE</t>
+  </si>
+  <si>
+    <t>test power button</t>
+  </si>
+  <si>
+    <t>input number press ^</t>
+  </si>
+  <si>
+    <t>4,^2</t>
+  </si>
+  <si>
+    <t>test square root button</t>
+  </si>
+  <si>
+    <t>input number press ?x</t>
+  </si>
+  <si>
+    <t>16,?x</t>
+  </si>
+  <si>
+    <t>test square button</t>
+  </si>
+  <si>
+    <t>input number then press x²</t>
+  </si>
+  <si>
+    <t>3,x²</t>
+  </si>
+  <si>
+    <t>test copy and paste buttons</t>
+  </si>
+  <si>
+    <t>input numbers copy clear screen paste</t>
+  </si>
+  <si>
+    <t>65,copy,C,paste</t>
+  </si>
+  <si>
+    <t>1st and 2nd compliments</t>
+  </si>
+  <si>
+    <t>input binary number</t>
+  </si>
+  <si>
+    <t>switch to binary, 1001</t>
   </si>
   <si>
     <t>Testing the functionality of the new UI</t>
@@ -151,16 +200,142 @@
   </si>
   <si>
     <t>calculator opens without error and works as expected</t>
+  </si>
+  <si>
+    <t>Test new snake game modes</t>
+  </si>
+  <si>
+    <t>open program and test different snake versions</t>
+  </si>
+  <si>
+    <t>click snake then click bin,hex,oct</t>
+  </si>
+  <si>
+    <t>proper treats appearing for the num systems</t>
+  </si>
+  <si>
+    <t>correct numbers do not appear</t>
+  </si>
+  <si>
+    <t>click snake then click hex,oct</t>
+  </si>
+  <si>
+    <t>bin works, hex does not</t>
+  </si>
+  <si>
+    <t>proper treats appear</t>
+  </si>
+  <si>
+    <t>test new 2048 game</t>
+  </si>
+  <si>
+    <t>open program and click new button</t>
+  </si>
+  <si>
+    <t>click newly added button</t>
+  </si>
+  <si>
+    <t>game functions like the app game</t>
+  </si>
+  <si>
+    <t>tiles ad up and more correctly</t>
+  </si>
+  <si>
+    <t>Test new 2048 game modes</t>
+  </si>
+  <si>
+    <t>open program and test different 2048 versions</t>
+  </si>
+  <si>
+    <t>click 2048 then  click different version</t>
+  </si>
+  <si>
+    <t>proper tile values appear and interact</t>
+  </si>
+  <si>
+    <t>Only octal is being used</t>
+  </si>
+  <si>
+    <t>Only bin is being used</t>
+  </si>
+  <si>
+    <t>all work but have improper fonts</t>
+  </si>
+  <si>
+    <t>all versions work properly</t>
+  </si>
+  <si>
+    <t>Test new added quiz game</t>
+  </si>
+  <si>
+    <t>open click new quiz button</t>
+  </si>
+  <si>
+    <t>click quiz and test game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">answers randomize and are the correct answers </t>
+  </si>
+  <si>
+    <t>answer was always on C, UI was improper</t>
+  </si>
+  <si>
+    <t>Test quiz ui</t>
+  </si>
+  <si>
+    <t>open quiz game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ui fits and looks like other windows </t>
+  </si>
+  <si>
+    <t>ui looks proper and themed</t>
+  </si>
+  <si>
+    <t>test dark mode theme</t>
+  </si>
+  <si>
+    <t>open calculator click new menu click dark mode</t>
+  </si>
+  <si>
+    <t>click calculator button, click dark mode theme menu button</t>
+  </si>
+  <si>
+    <t>colors change to dark mode</t>
+  </si>
+  <si>
+    <t>ui chnages to dark mode version</t>
+  </si>
+  <si>
+    <t>test new quiz modes</t>
+  </si>
+  <si>
+    <t>open quiz game click different mode</t>
+  </si>
+  <si>
+    <t>click quiz then click bin,hex,oct</t>
+  </si>
+  <si>
+    <t>questions corresponds with correct number system</t>
+  </si>
+  <si>
+    <t>application crashes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">different modes work correctly </t>
+  </si>
+  <si>
+    <t>test new snake UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open snake </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,16 +350,309 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -192,46 +660,227 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="9">
     <dxf>
       <numFmt numFmtId="21" formatCode="dd/mmm"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -240,19 +889,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -261,19 +898,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -292,18 +917,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB03041D-EDA3-419F-8CF2-E7CD0792E2E8}" name="Table1" displayName="Table1" ref="B1:H15" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="B1:H15" xr:uid="{852A9730-4E3E-4BB8-A01C-94E43E0CA4FA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="8" dataDxfId="3">
+  <autoFilter ref="A1:G32"/>
   <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{2DBF5C7E-1198-4FDA-A717-DDDE61603AA2}" name="Date" dataDxfId="0" totalsRowDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{CF29E625-763D-4E8A-AC57-F8E0AD14DD2B}" name="Test ID" dataDxfId="13" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{34FD026B-393C-4869-A34D-A847759D391B}" name="Purpose" dataDxfId="12" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{5E06EDFC-83DB-4D4C-B94B-E97A4EA7CA92}" name="Steps" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{D0E1F7C4-6FAA-4890-A2E1-660268241B0C}" name="Input" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{28A82FE7-CE4D-441D-9E4F-9E0D744DAE61}" name="Expected Output" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{E68CB5C5-46B9-4AF2-9E80-B5CC54310ED4}" name="Actual Output" dataDxfId="8" totalsRowDxfId="1"/>
+    <tableColumn id="1" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" name="Test ID" dataDxfId="1"/>
+    <tableColumn id="3" name="Purpose" dataDxfId="2"/>
+    <tableColumn id="4" name="Steps" dataDxfId="7"/>
+    <tableColumn id="5" name="Input" dataDxfId="6"/>
+    <tableColumn id="6" name="Expected Output" dataDxfId="5"/>
+    <tableColumn id="7" name="Actual Output" dataDxfId="4"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -603,415 +1228,763 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1489118B-CE05-44FE-BCA8-C88418F387DD}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>43661</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>43661</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>43661</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>43661</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>43662</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>43662</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>43663</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>43665</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>43665</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>43665</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2">
-        <v>43661</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
-        <v>43661</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>43665</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="2">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="G12" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>43665</v>
+      </c>
+      <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="H3" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>43661</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="2">
+        <v>65</v>
+      </c>
+      <c r="G13" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>43665</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="2">
+        <v>111</v>
+      </c>
+      <c r="G14" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>43665</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>43665</v>
+      </c>
+      <c r="B16" s="3">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>43665</v>
+      </c>
+      <c r="B17" s="3">
         <v>16</v>
       </c>
-      <c r="G4" s="7">
-        <v>-5</v>
-      </c>
-      <c r="H4" s="7">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>43661</v>
-      </c>
-      <c r="C5" s="6">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>43662</v>
-      </c>
-      <c r="C6" s="6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>43666</v>
+      </c>
+      <c r="B18" s="3">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>43666</v>
+      </c>
+      <c r="B19" s="3">
         <v>18</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="C19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>43666</v>
+      </c>
+      <c r="B20" s="3">
         <v>19</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>43669</v>
+      </c>
+      <c r="B21" s="3">
         <v>20</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="C21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>43669</v>
+      </c>
+      <c r="B22" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>43662</v>
-      </c>
-      <c r="C7" s="6">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>43669</v>
+      </c>
+      <c r="B23" s="3">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="C23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>43669</v>
+      </c>
+      <c r="B24" s="3">
         <v>23</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="C24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>43669</v>
+      </c>
+      <c r="B25" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>43663</v>
-      </c>
-      <c r="C8" s="6">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>43669</v>
+      </c>
+      <c r="B26" s="3">
         <v>25</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="C26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>43670</v>
+      </c>
+      <c r="B27" s="3">
         <v>26</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="C27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>43670</v>
+      </c>
+      <c r="B28" s="3">
         <v>27</v>
       </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>43665</v>
-      </c>
-      <c r="C9" s="6">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>43672</v>
+      </c>
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>43675</v>
+      </c>
+      <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="C30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>43677</v>
+      </c>
+      <c r="B31" s="3">
         <v>30</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="C31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>43678</v>
+      </c>
+      <c r="B32" s="3">
         <v>31</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>43665</v>
-      </c>
-      <c r="C10" s="6">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>43665</v>
-      </c>
-      <c r="C11" s="8">
-        <v>10</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="C32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>